--- a/Development/Results/readmission.model.xlsx
+++ b/Development/Results/readmission.model.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">names</t>
   </si>
@@ -35,37 +35,22 @@
     <t xml:space="preserve">Chi.refitted.final</t>
   </si>
   <si>
-    <t xml:space="preserve">coef.calibrated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI.calibrated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chi.calibrated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coef.redeveloped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI.redeveloped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chi.redeveloped</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intercept</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00; 0.00]</t>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.19; 0.47]</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">[1.46; 2.61]</t>
+    <t xml:space="preserve">0.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.30; 0.72]</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH</t>
@@ -86,21 +71,6 @@
     <t xml:space="preserve">10.1</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.04; 1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.04; 1.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">CorrCa24u</t>
   </si>
   <si>
@@ -119,15 +89,6 @@
     <t xml:space="preserve">7.3</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.11; 1.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">BSKgezien - No:Yes</t>
   </si>
   <si>
@@ -149,12 +110,6 @@
     <t xml:space="preserve">0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.57; 8.09]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Age_Years</t>
   </si>
   <si>
@@ -203,16 +158,10 @@
     <t xml:space="preserve">C-index</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.85; 0.94]</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.88</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.84; 0.93]</t>
+    <t xml:space="preserve">[0.83; 0.92]</t>
   </si>
   <si>
     <t xml:space="preserve">0.87</t>
@@ -572,392 +521,212 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Development/Results/readmission.model.xlsx
+++ b/Development/Results/readmission.model.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">names</t>
   </si>
@@ -158,16 +158,13 @@
     <t xml:space="preserve">C-index</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.83; 0.92]</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.87</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.82; 0.92]</t>
+    <t xml:space="preserve">[0.82; 0.93]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.81; 0.92]</t>
   </si>
 </sst>
 </file>
@@ -720,10 +717,10 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>

--- a/Development/Results/readmission.model.xlsx
+++ b/Development/Results/readmission.model.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">names</t>
   </si>
@@ -158,13 +158,16 @@
     <t xml:space="preserve">C-index</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.82; 0.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.81; 0.92]</t>
+    <t xml:space="preserve">0.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.84; 0.94]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.83; 0.93]</t>
   </si>
 </sst>
 </file>
@@ -717,10 +720,10 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
